--- a/xlsx/无线应用协议_intext.xlsx
+++ b/xlsx/无线应用协议_intext.xlsx
@@ -29,7 +29,7 @@
     <t>移动电话</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_无线应用协议</t>
+    <t>政策_政策_维基百科_无线应用协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>行動作業系統</t>
+    <t>行动作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F%E6%AF%94%E8%BE%83</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E8%A8%8A</t>
   </si>
   <si>
-    <t>簡訊</t>
+    <t>简讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%AA%92%E9%AB%94%E7%9F%AD%E8%A8%8A</t>
   </si>
   <si>
-    <t>多媒體短訊</t>
+    <t>多媒体短讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_phone_spam</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%BB%9F%E9%AB%94%E7%99%BC%E8%A1%8C%E5%B9%B3%E5%8F%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>行動軟體發行平台列表</t>
+    <t>行动软体发行平台列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E5%95%86%E5%8B%99</t>
   </si>
   <si>
-    <t>行動商務</t>
+    <t>行动商务</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_instant_messaging</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>行動學習</t>
+    <t>行动学习</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_local_search</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E8%81%BD</t>
   </si>
   <si>
-    <t>竊聽</t>
+    <t>窃听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E8%90%A5%E9%94%80</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E6%94%AF%E4%BB%98</t>
   </si>
   <si>
-    <t>行動支付</t>
+    <t>行动支付</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Push_email</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E5%90%8A%E9%A3%BE</t>
   </si>
   <si>
-    <t>手機吊飾</t>
+    <t>手机吊饰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_comic</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%89%8B%E6%A9%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>日本手機文化</t>
+    <t>日本手机文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%9C%BA%E5%B0%8F%E8%AF%B4</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>手機廣告</t>
+    <t>手机广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Root_(Android%E7%B3%BB%E7%BB%9F)</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>功能型手機</t>
+    <t>功能型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E6%9C%BA%E6%89%8B%E6%9C%BA</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E8%A6%8F%E6%A0%BC</t>
   </si>
   <si>
-    <t>手機規格</t>
+    <t>手机规格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comparison_of_smartphones</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E7%AB%8A%E8%81%BD</t>
   </si>
   <si>
-    <t>電話竊聽</t>
+    <t>电话窃听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/992_(%E7%B7%8A%E6%80%A5%E7%9F%AD%E8%A8%8A%E6%B1%82%E5%8A%A9)</t>
   </si>
   <si>
-    <t>992 (緊急短訊求助)</t>
+    <t>992 (紧急短讯求助)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E9%81%93%E5%AE%B9%E9%87%8F</t>
